--- a/ValueSet-vs-hiv-vl-reason.xlsx
+++ b/ValueSet-vs-hiv-vl-reason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-vl-reason.xlsx
+++ b/ValueSet-vs-hiv-vl-reason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-hiv-vl-reason.xlsx
+++ b/ValueSet-vs-hiv-vl-reason.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
